--- a/Projects/Federal Reserve Data/Disaggregated C&A  Diff-in-DiffDAGOLS 2010-01-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/Disaggregated C&A  Diff-in-DiffDAGOLS 2010-01-31 to 2020-02-29.xlsx
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
-    <t>C Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>U Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>$\pi$ Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>FFR Diff-in-Diff</t>
-  </si>
-  <si>
-    <t>A Diff-in-Diff</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>$\pi$</t>
+  </si>
+  <si>
+    <t>FFR</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>Constant</t>
@@ -37,79 +37,79 @@
     <t>r2_adj</t>
   </si>
   <si>
-    <t>-0.167**</t>
-  </si>
-  <si>
-    <t>-0.378</t>
-  </si>
-  <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>4.782***</t>
-  </si>
-  <si>
-    <t>-0.192</t>
-  </si>
-  <si>
-    <t>-0.387**</t>
-  </si>
-  <si>
-    <t>1.61*</t>
-  </si>
-  <si>
-    <t>-0.179</t>
-  </si>
-  <si>
-    <t>-3.276*</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>0.036*</t>
-  </si>
-  <si>
-    <t>-0.064</t>
-  </si>
-  <si>
-    <t>-0.145</t>
-  </si>
-  <si>
-    <t>-0.071</t>
-  </si>
-  <si>
-    <t>0.015</t>
-  </si>
-  <si>
-    <t>-0.002</t>
-  </si>
-  <si>
-    <t>-0.027</t>
-  </si>
-  <si>
-    <t>-0.298*</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>0.056***</t>
-  </si>
-  <si>
-    <t>-0.017*</t>
-  </si>
-  <si>
-    <t>-0.033</t>
-  </si>
-  <si>
-    <t>-0.158*</t>
-  </si>
-  <si>
-    <t>0.063*</t>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>-0.822*</t>
+  </si>
+  <si>
+    <t>-0.023</t>
+  </si>
+  <si>
+    <t>4.771***</t>
+  </si>
+  <si>
+    <t>-0.342</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>-1.621</t>
+  </si>
+  <si>
+    <t>-5.353***</t>
+  </si>
+  <si>
+    <t>-4.749*</t>
+  </si>
+  <si>
+    <t>-1.394</t>
+  </si>
+  <si>
+    <t>-0.04*</t>
+  </si>
+  <si>
+    <t>-0.011</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>-0.629***</t>
+  </si>
+  <si>
+    <t>-0.015</t>
+  </si>
+  <si>
+    <t>-0.001</t>
+  </si>
+  <si>
+    <t>-0.019***</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>-0.548***</t>
+  </si>
+  <si>
+    <t>0.089</t>
+  </si>
+  <si>
+    <t>0.072***</t>
+  </si>
+  <si>
+    <t>-0.01*</t>
+  </si>
+  <si>
+    <t>-0.193***</t>
+  </si>
+  <si>
+    <t>-0.31***</t>
+  </si>
+  <si>
+    <t>0.049</t>
   </si>
 </sst>
 </file>
@@ -600,19 +600,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.45</v>
+        <v>0.68</v>
       </c>
       <c r="C8">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="D8">
-        <v>0.13</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E8">
-        <v>0.01</v>
+        <v>0.53</v>
       </c>
       <c r="F8">
-        <v>0.46</v>
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
